--- a/project/COPPER/sample_generators/COPPER_configuration.xlsx
+++ b/project/COPPER/sample_generators/COPPER_configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoha\Documents\Git\m3_modelling\ML\COPPER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoha\Documents\Git\ml_progress\project\COPPER\sample_generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26914A9B-5998-4A50-8661-483AFFEF1A49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D459B-DB81-4E2E-8EB2-307FE97A51BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>

--- a/project/COPPER/sample_generators/COPPER_configuration.xlsx
+++ b/project/COPPER/sample_generators/COPPER_configuration.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoha\Documents\Git\ml_progress\project\COPPER\sample_generators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESIT Group\Desktop\Google Drive\PhD\Thesis\COPPER\COPPER5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D459B-DB81-4E2E-8EB2-307FE97A51BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="20190" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
